--- a/excel/pageList.xlsx
+++ b/excel/pageList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>title</t>
   </si>
@@ -53,6 +53,53 @@
   </si>
   <si>
     <t>img/index/test2.jpg</t>
+  </si>
+  <si>
+    <t>這是第三篇文章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>這是第四篇文章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>這是第五篇文章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>這是第六篇文章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>這是第三篇文章的描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>這是第五篇文章的描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>這是第六篇文章的描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img/index/test3.jpg</t>
+  </si>
+  <si>
+    <t>img/index/test1.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>這是第七篇文章的描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>這是第七篇文章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>這是第四篇文章的描描述描述描述描述描述描述描述描述描述描述描述描述描述述描述描述描述描述描述描述描述描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -76,20 +123,41 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -98,11 +166,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -406,70 +483,155 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.875" customWidth="1"/>
-    <col min="2" max="2" width="20.75" customWidth="1"/>
-    <col min="3" max="3" width="23.5" customWidth="1"/>
-    <col min="4" max="4" width="18.125" customWidth="1"/>
-    <col min="5" max="5" width="12.375" customWidth="1"/>
+    <col min="1" max="1" width="23.875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="32" style="3" customWidth="1"/>
+    <col min="3" max="3" width="23.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="4">
         <v>41709</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="4">
         <v>41703</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="4">
+        <v>41697</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="4">
+        <v>41691</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="4">
+        <v>41685</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="4">
+        <v>41679</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="4">
+        <v>41680</v>
       </c>
     </row>
   </sheetData>

--- a/excel/pageList.xlsx
+++ b/excel/pageList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
   <si>
     <t>title</t>
   </si>
@@ -100,6 +100,29 @@
   <si>
     <t>這是第四篇文章的描描述描述描述描述描述描述描述描述描述描述描述描述描述述描述描述描述描述描述描述描述描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014/3/18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014/3/19</t>
+  </si>
+  <si>
+    <t>2014/3/20</t>
+  </si>
+  <si>
+    <t>2014/3/21</t>
+  </si>
+  <si>
+    <t>2014/2/18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014/2/19</t>
+  </si>
+  <si>
+    <t>2014/2/20</t>
   </si>
 </sst>
 </file>
@@ -170,16 +193,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -486,7 +509,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -496,22 +519,23 @@
     <col min="3" max="3" width="23.5" style="3" customWidth="1"/>
     <col min="4" max="4" width="18.125" style="3" customWidth="1"/>
     <col min="5" max="5" width="12.375" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -528,8 +552,8 @@
       <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4">
-        <v>41709</v>
+      <c r="E2" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -545,8 +569,8 @@
       <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="4">
-        <v>41703</v>
+      <c r="E3" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -562,8 +586,8 @@
       <c r="D4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="4">
-        <v>41697</v>
+      <c r="E4" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -579,8 +603,8 @@
       <c r="D5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="4">
-        <v>41691</v>
+      <c r="E5" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -596,8 +620,8 @@
       <c r="D6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="4">
-        <v>41685</v>
+      <c r="E6" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -613,8 +637,8 @@
       <c r="D7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="4">
-        <v>41679</v>
+      <c r="E7" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -630,12 +654,13 @@
       <c r="D8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="4">
-        <v>41680</v>
+      <c r="E8" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/excel/pageList.xlsx
+++ b/excel/pageList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
   <si>
     <t>title</t>
   </si>
@@ -123,6 +123,52 @@
   </si>
   <si>
     <t>2014/2/20</t>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014002</t>
+  </si>
+  <si>
+    <t>2014003</t>
+  </si>
+  <si>
+    <t>2014004</t>
+  </si>
+  <si>
+    <t>2014005</t>
+  </si>
+  <si>
+    <t>2014006</t>
+  </si>
+  <si>
+    <t>2014007</t>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>front</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>css</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>design</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -506,155 +552,204 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="32" style="3" customWidth="1"/>
-    <col min="3" max="3" width="23.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="18.125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.375" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="4"/>
+    <col min="1" max="2" width="9" style="3"/>
+    <col min="3" max="3" width="23.875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="32" style="3" customWidth="1"/>
+    <col min="5" max="5" width="54.875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="18.125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="12.375" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>28</v>
       </c>
     </row>

--- a/excel/pageList.xlsx
+++ b/excel/pageList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="83">
   <si>
     <t>title</t>
   </si>
@@ -155,10 +155,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>front</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>css</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -169,6 +165,131 @@
   <si>
     <t>ui</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014008</t>
+  </si>
+  <si>
+    <t>2014009</t>
+  </si>
+  <si>
+    <t>2014010</t>
+  </si>
+  <si>
+    <t>2014011</t>
+  </si>
+  <si>
+    <t>2014012</t>
+  </si>
+  <si>
+    <t>2014013</t>
+  </si>
+  <si>
+    <t>2014014</t>
+  </si>
+  <si>
+    <t>2014015</t>
+  </si>
+  <si>
+    <t>2014016</t>
+  </si>
+  <si>
+    <t>2014017</t>
+  </si>
+  <si>
+    <t>2014018</t>
+  </si>
+  <si>
+    <t>2014019</t>
+  </si>
+  <si>
+    <t>2014020</t>
+  </si>
+  <si>
+    <t>這是第八篇文章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>這是第九篇文章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014/2/21</t>
+  </si>
+  <si>
+    <t>2014/3/22</t>
+  </si>
+  <si>
+    <t>2014/2/22</t>
+  </si>
+  <si>
+    <t>2014/3/23</t>
+  </si>
+  <si>
+    <t>2014/2/23</t>
+  </si>
+  <si>
+    <t>2014/3/24</t>
+  </si>
+  <si>
+    <t>2014/2/24</t>
+  </si>
+  <si>
+    <t>2014/3/25</t>
+  </si>
+  <si>
+    <t>2014/2/25</t>
+  </si>
+  <si>
+    <t>2014/3/26</t>
+  </si>
+  <si>
+    <t>2014/2/26</t>
+  </si>
+  <si>
+    <t>2014/3/27</t>
+  </si>
+  <si>
+    <t>2014/2/27</t>
+  </si>
+  <si>
+    <t>front-end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>這是第一篇文章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>這是第六篇文章這是第六篇文章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tw.news.yahoo.com/sports</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tw.news.yahoo.com/entertainment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img/index/test4.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img/index/test5.jpg</t>
+  </si>
+  <si>
+    <t>img/index/test6.jpg</t>
+  </si>
+  <si>
+    <t>img/index/test7.jpg</t>
+  </si>
+  <si>
+    <t>img/index/test8.jpg</t>
+  </si>
+  <si>
+    <t>img/index/test9.jpg</t>
   </si>
 </sst>
 </file>
@@ -552,17 +673,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9" style="3"/>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="22.375" style="3" customWidth="1"/>
     <col min="3" max="3" width="23.875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="32" style="3" customWidth="1"/>
+    <col min="4" max="4" width="57.625" style="3" customWidth="1"/>
     <col min="5" max="5" width="54.875" style="3" customWidth="1"/>
     <col min="6" max="6" width="18.125" style="3" customWidth="1"/>
     <col min="7" max="7" width="12.375" style="3" customWidth="1"/>
@@ -597,10 +719,10 @@
         <v>33</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>6</v>
@@ -620,7 +742,7 @@
         <v>34</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -643,13 +765,13 @@
         <v>35</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>10</v>
+      <c r="D4" t="s">
+        <v>75</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>17</v>
@@ -666,19 +788,19 @@
         <v>36</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>10</v>
+      <c r="D5" t="s">
+        <v>76</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>30</v>
@@ -689,7 +811,7 @@
         <v>37</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>15</v>
@@ -701,7 +823,7 @@
         <v>18</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>27</v>
@@ -712,10 +834,10 @@
         <v>38</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>10</v>
@@ -724,7 +846,7 @@
         <v>19</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>31</v>
@@ -735,7 +857,7 @@
         <v>39</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>23</v>
@@ -747,10 +869,309 @@
         <v>22</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/excel/pageList.xlsx
+++ b/excel/pageList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="70">
   <si>
     <t>title</t>
   </si>
@@ -125,87 +125,6 @@
     <t>2014/2/20</t>
   </si>
   <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2014001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2014002</t>
-  </si>
-  <si>
-    <t>2014003</t>
-  </si>
-  <si>
-    <t>2014004</t>
-  </si>
-  <si>
-    <t>2014005</t>
-  </si>
-  <si>
-    <t>2014006</t>
-  </si>
-  <si>
-    <t>2014007</t>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>css</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>design</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2014008</t>
-  </si>
-  <si>
-    <t>2014009</t>
-  </si>
-  <si>
-    <t>2014010</t>
-  </si>
-  <si>
-    <t>2014011</t>
-  </si>
-  <si>
-    <t>2014012</t>
-  </si>
-  <si>
-    <t>2014013</t>
-  </si>
-  <si>
-    <t>2014014</t>
-  </si>
-  <si>
-    <t>2014015</t>
-  </si>
-  <si>
-    <t>2014016</t>
-  </si>
-  <si>
-    <t>2014017</t>
-  </si>
-  <si>
-    <t>2014018</t>
-  </si>
-  <si>
-    <t>2014019</t>
-  </si>
-  <si>
-    <t>2014020</t>
-  </si>
-  <si>
     <t>這是第八篇文章</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -253,18 +172,10 @@
     <t>2014/2/27</t>
   </si>
   <si>
-    <t>front-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>這是第一篇文章</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>這是第六篇文章這是第六篇文章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://tw.news.yahoo.com/sports</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -290,6 +201,62 @@
   </si>
   <si>
     <t>img/index/test9.jpg</t>
+  </si>
+  <si>
+    <t>tag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>這是第六篇文章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>這是第四篇文章的描描述描述描述描述描述描述描述描述描述描述描述描述描述述描述描述描述描述描述描述描述描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>這是第一篇文章的描述這是第一篇文章的描述這是第一篇文章的描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>這是第二篇文章的描述這是第二篇文章的描述這是第二篇文章的描述這是第二篇文章的描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>這是第三篇文章的描述這是第三篇文章的描述這是第三篇文章的描述這是第三篇文章的描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>這是第五篇文章的描述這是第五篇文章的描述這是第五篇文章的描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>這是第六篇文章的描述這是第六篇文章的描述這是第六篇文章的描述這是第六篇文章的描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag-ui</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag-design</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag-photo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag-web</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag-ill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag-css</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -356,7 +323,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -370,6 +337,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -673,505 +643,441 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="22.375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="23.875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="57.625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="54.875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="18.125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="12.375" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="22.375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="23.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="37" style="3" customWidth="1"/>
+    <col min="4" max="4" width="54.875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="18.125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.375" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" s="3" t="s">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="F16" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="3" t="s">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="C17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="E17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="F17" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="3" t="s">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="C18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="E18" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="F18" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="C19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="E19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="C20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="E20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="E21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/excel/pageList.xlsx
+++ b/excel/pageList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="79">
   <si>
     <t>title</t>
   </si>
@@ -125,14 +125,6 @@
     <t>2014/2/20</t>
   </si>
   <si>
-    <t>這是第八篇文章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>這是第九篇文章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2014/2/21</t>
   </si>
   <si>
@@ -172,10 +164,6 @@
     <t>2014/2/27</t>
   </si>
   <si>
-    <t>這是第一篇文章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://tw.news.yahoo.com/sports</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -207,10 +195,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>這是第六篇文章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>這是第四篇文章的描描述描述描述描述描述描述描述描述描述描述描述描述描述述描述描述描述描述描述描述描述描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -256,6 +240,58 @@
   </si>
   <si>
     <t>tag-css</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>這是第一篇文章1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>這是第六篇文章20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>這是第二篇文章2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>這是第三篇文章3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>這是第四篇文章4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>這是第五篇文章5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>這是第六篇文章6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>這是第七篇文章7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>這是第八篇文章8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>這是第九篇文章9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>這是第三篇文章10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>這是第五篇文章19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>這是第四篇文章18</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -646,7 +682,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -662,7 +698,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -682,16 +718,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>8</v>
@@ -702,16 +738,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>12</v>
@@ -722,16 +758,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>20</v>
@@ -742,19 +778,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>30</v>
@@ -762,19 +798,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>27</v>
@@ -782,19 +818,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>31</v>
@@ -802,10 +838,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>10</v>
@@ -814,7 +850,7 @@
         <v>22</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>28</v>
@@ -822,10 +858,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>6</v>
@@ -834,18 +870,18 @@
         <v>7</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>10</v>
@@ -854,18 +890,18 @@
         <v>11</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>10</v>
@@ -877,12 +913,12 @@
         <v>20</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>14</v>
@@ -897,12 +933,12 @@
         <v>8</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>15</v>
@@ -917,12 +953,12 @@
         <v>12</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>16</v>
@@ -937,12 +973,12 @@
         <v>20</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>23</v>
@@ -957,12 +993,12 @@
         <v>21</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>5</v>
@@ -977,12 +1013,12 @@
         <v>8</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>9</v>
@@ -997,12 +1033,12 @@
         <v>12</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>13</v>
@@ -1017,15 +1053,15 @@
         <v>20</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>10</v>
@@ -1037,15 +1073,15 @@
         <v>8</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>10</v>
@@ -1057,15 +1093,15 @@
         <v>12</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>10</v>
@@ -1077,7 +1113,7 @@
         <v>20</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/excel/pageList.xlsx
+++ b/excel/pageList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="127">
   <si>
     <t>title</t>
   </si>
@@ -292,6 +292,161 @@
   </si>
   <si>
     <t>這是第四篇文章18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img/index/test4.jpg</t>
+  </si>
+  <si>
+    <t>2014/2/28</t>
+  </si>
+  <si>
+    <t>2014/2/29</t>
+  </si>
+  <si>
+    <t>2014/2/30</t>
+  </si>
+  <si>
+    <t>2014/2/31</t>
+  </si>
+  <si>
+    <t>2014/2/32</t>
+  </si>
+  <si>
+    <t>2014/2/33</t>
+  </si>
+  <si>
+    <t>2014/2/34</t>
+  </si>
+  <si>
+    <t>2014/2/35</t>
+  </si>
+  <si>
+    <t>2014/2/36</t>
+  </si>
+  <si>
+    <t>2014/2/37</t>
+  </si>
+  <si>
+    <t>這是第五篇文章21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>這是第六篇文章22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>這是第五篇文章23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>這是第六篇文章24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>這是第五篇文章25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>這是第六篇文章26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>這是第五篇文章27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>這是第六篇文章28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag-ill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>這是第篇文章28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>這是第篇文章29</t>
+  </si>
+  <si>
+    <t>這是第篇文章30</t>
+  </si>
+  <si>
+    <t>這是第篇文章31</t>
+  </si>
+  <si>
+    <t>這是第篇文章32</t>
+  </si>
+  <si>
+    <t>這是第篇文章33</t>
+  </si>
+  <si>
+    <t>這是第篇文章34</t>
+  </si>
+  <si>
+    <t>這是第篇文章35</t>
+  </si>
+  <si>
+    <t>這是第篇文章36</t>
+  </si>
+  <si>
+    <t>這是第篇文章37</t>
+  </si>
+  <si>
+    <t>這是第篇文章38</t>
+  </si>
+  <si>
+    <t>這是第篇文章39</t>
+  </si>
+  <si>
+    <t>2014/2/38</t>
+  </si>
+  <si>
+    <t>這是第篇文章40</t>
+  </si>
+  <si>
+    <t>2014/2/39</t>
+  </si>
+  <si>
+    <t>這是第篇文章41</t>
+  </si>
+  <si>
+    <t>2014/2/40</t>
+  </si>
+  <si>
+    <t>這是第篇文章42</t>
+  </si>
+  <si>
+    <t>2014/2/41</t>
+  </si>
+  <si>
+    <t>這是第篇文章43</t>
+  </si>
+  <si>
+    <t>2014/2/42</t>
+  </si>
+  <si>
+    <t>這是第篇文章44</t>
+  </si>
+  <si>
+    <t>2014/2/43</t>
+  </si>
+  <si>
+    <t>這是第篇文章45</t>
+  </si>
+  <si>
+    <t>2014/2/44</t>
+  </si>
+  <si>
+    <t>這是第篇文章46</t>
+  </si>
+  <si>
+    <t>2014/2/45</t>
+  </si>
+  <si>
+    <t>tag-others</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -679,10 +834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1116,6 +1271,546 @@
         <v>44</v>
       </c>
     </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel/pageList.xlsx
+++ b/excel/pageList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>title</t>
   </si>
@@ -28,9 +28,6 @@
     <t>date</t>
   </si>
   <si>
-    <t>img/index/test1.jpg</t>
-  </si>
-  <si>
     <t>tag</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -48,6 +45,22 @@
   </si>
   <si>
     <t>MAY 18TH, 2014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contact</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/articles/201405/contact.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/img/articles/201405/20140518_1_01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/img/articles/201405/20140518_2_01.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -72,18 +85,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -115,23 +122,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -435,25 +433,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="23.875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="37" style="3" customWidth="1"/>
-    <col min="4" max="4" width="18.125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="19.25" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37" style="1" customWidth="1"/>
+    <col min="4" max="4" width="36.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.25" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -468,21 +466,38 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="5" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/excel/pageList.xlsx
+++ b/excel/pageList.xlsx
@@ -436,7 +436,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -471,13 +471,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
@@ -488,13 +488,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>8</v>

--- a/excel/pageList.xlsx
+++ b/excel/pageList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>title</t>
   </si>
@@ -61,6 +61,26 @@
   </si>
   <si>
     <t>/img/articles/201405/20140518_2_01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag-web</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SublimeText Package</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/articles/201405/sublimetext-package.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/img/articles/201405/20140520_1_01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAY 20TH, 2014</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -433,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -468,19 +488,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -488,15 +508,32 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>8</v>
       </c>
     </row>

--- a/excel/pageList.xlsx
+++ b/excel/pageList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>title</t>
   </si>
@@ -81,6 +81,26 @@
   </si>
   <si>
     <t>MAY 20TH, 2014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag-creative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人中伯貼圖設計</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/articles/201405/ozsun.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/img/articles/201405/20140525_1_01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAY 25TH, 2014</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -453,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -488,36 +508,36 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -525,15 +545,32 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>8</v>
       </c>
     </row>

--- a/excel/pageList.xlsx
+++ b/excel/pageList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>title</t>
   </si>
@@ -101,6 +101,22 @@
   </si>
   <si>
     <t>MAY 25TH, 2014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag-web</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SublimeText 組合快速鍵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/articles/201405/keyboard-shortcuts.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/img/articles/201405/20140525_2_01.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -473,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -508,16 +524,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>22</v>
@@ -525,36 +541,36 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -562,15 +578,32 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>8</v>
       </c>
     </row>

--- a/excel/pageList.xlsx
+++ b/excel/pageList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t>title</t>
   </si>
@@ -117,6 +117,18 @@
   </si>
   <si>
     <t>/img/articles/201405/20140525_2_01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>從小我就愛隨手畫畫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/articles/201405/painting.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/img/articles/201405/20140525_3_01.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -489,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -524,16 +536,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>22</v>
@@ -541,16 +553,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>22</v>
@@ -558,36 +570,36 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -595,15 +607,32 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>8</v>
       </c>
     </row>

--- a/excel/pageList.xlsx
+++ b/excel/pageList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>title</t>
   </si>
@@ -129,6 +129,26 @@
   </si>
   <si>
     <t>/img/articles/201405/20140525_3_01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag-css</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSS 偽類 child 和 of-type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/articles/201405/css-selector.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/img/articles/201405/20140527_1_01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAY 27TH, 2014</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -501,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -536,33 +556,33 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>22</v>
@@ -570,16 +590,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>22</v>
@@ -587,36 +607,36 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -624,15 +644,32 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>8</v>
       </c>
     </row>

--- a/excel/pageList.xlsx
+++ b/excel/pageList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
   <si>
     <t>title</t>
   </si>
@@ -149,6 +149,26 @@
   </si>
   <si>
     <t>MAY 27TH, 2014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag-ui</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搖控器 APP UI 設計</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/articles/201405/remote-control-ui.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/img/articles/201405/20140529_1_01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAY 29TH, 2014</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -521,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -556,50 +576,50 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>22</v>
@@ -607,16 +627,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>22</v>
@@ -624,36 +644,36 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -661,15 +681,32 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>8</v>
       </c>
     </row>

--- a/excel/pageList.xlsx
+++ b/excel/pageList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
   <si>
     <t>title</t>
   </si>
@@ -169,6 +169,22 @@
   </si>
   <si>
     <t>MAY 29TH, 2014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSS Specificity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/articles/201405/css-specificity.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/img/articles/201405/20140530_1_01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAY 30TH, 2014</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -541,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -576,67 +592,67 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>22</v>
@@ -644,16 +660,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>22</v>
@@ -661,36 +677,36 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -698,15 +714,32 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>8</v>
       </c>
     </row>

--- a/excel/pageList.xlsx
+++ b/excel/pageList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
   <si>
     <t>title</t>
   </si>
@@ -185,6 +185,26 @@
   </si>
   <si>
     <t>MAY 30TH, 2014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag-photo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修圖與攝影</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/articles/201405/edit-photo.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/img/articles/201405/20140531_1_01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAY 31TH, 2014</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -557,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -592,84 +612,84 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>22</v>
@@ -677,16 +697,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>22</v>
@@ -694,36 +714,36 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -731,15 +751,32 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>8</v>
       </c>
     </row>

--- a/excel/pageList.xlsx
+++ b/excel/pageList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
   <si>
     <t>title</t>
   </si>
@@ -205,6 +205,26 @@
   </si>
   <si>
     <t>MAY 31TH, 2014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag-web</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>結構化資料 SEO 與 meta 標籤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/articles/201406/social-meta.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/img/articles/201406/20140601_1_01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JUN 1TH, 2014</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -577,16 +597,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28" style="1" customWidth="1"/>
     <col min="3" max="3" width="37" style="1" customWidth="1"/>
     <col min="4" max="4" width="36.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="19.25" style="1" customWidth="1"/>
@@ -612,101 +632,101 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>22</v>
@@ -714,16 +734,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>22</v>
@@ -731,36 +751,36 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -768,15 +788,32 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>8</v>
       </c>
     </row>

--- a/excel/pageList.xlsx
+++ b/excel/pageList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
   <si>
     <t>title</t>
   </si>
@@ -225,6 +225,22 @@
   </si>
   <si>
     <t>JUN 1TH, 2014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dreamsmile 網頁設計</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/articles/201406/dreamsmile-web.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/img/articles/201406/20140602_1_01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JUN 2TH, 2014</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -597,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -632,118 +648,118 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>22</v>
@@ -751,16 +767,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>22</v>
@@ -768,36 +784,36 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -805,15 +821,32 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>8</v>
       </c>
     </row>

--- a/excel/pageList.xlsx
+++ b/excel/pageList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="61">
   <si>
     <t>title</t>
   </si>
@@ -241,6 +241,18 @@
   </si>
   <si>
     <t>JUN 2TH, 2014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSS 文字的換行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/articles/201406/css-word-break.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/img/articles/201406/20140602_2_01.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -613,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -648,16 +660,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>57</v>
@@ -665,118 +677,118 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>22</v>
@@ -784,16 +796,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>22</v>
@@ -801,36 +813,36 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -838,15 +850,32 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>8</v>
       </c>
     </row>

--- a/excel/pageList.xlsx
+++ b/excel/pageList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="65">
   <si>
     <t>title</t>
   </si>
@@ -253,6 +253,22 @@
   </si>
   <si>
     <t>/img/articles/201406/20140602_2_01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCSS 安裝與執行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/articles/201406/scss-01-install.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/img/articles/201406/20140604_1_01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JUN 4TH, 2014</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -625,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -663,30 +679,30 @@
         <v>30</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>57</v>
@@ -694,118 +710,118 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>22</v>
@@ -813,16 +829,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>22</v>
@@ -830,36 +846,36 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -867,15 +883,32 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>8</v>
       </c>
     </row>

--- a/excel/pageList.xlsx
+++ b/excel/pageList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="68">
   <si>
     <t>title</t>
   </si>
@@ -269,6 +269,18 @@
   </si>
   <si>
     <t>JUN 4TH, 2014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/articles/201406/google-code-prettify.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Google Code Prettify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/img/articles/201406/20140604_2_01.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -641,10 +653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -676,16 +688,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>64</v>
@@ -696,30 +708,30 @@
         <v>30</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>57</v>
@@ -727,118 +739,118 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>22</v>
@@ -846,16 +858,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>22</v>
@@ -863,36 +875,36 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -900,15 +912,32 @@
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>8</v>
       </c>
     </row>

--- a/excel/pageList.xlsx
+++ b/excel/pageList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="73">
   <si>
     <t>title</t>
   </si>
@@ -281,6 +281,26 @@
   </si>
   <si>
     <t>/img/articles/201406/20140604_2_01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag-css</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web Font 的使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/articles/201406/css-web-font.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JUN 6TH, 2014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/img/articles/201406/20140606_1_01.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -653,10 +673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -688,33 +708,33 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>64</v>
@@ -725,30 +745,30 @@
         <v>30</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>57</v>
@@ -756,118 +776,118 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>22</v>
@@ -875,16 +895,16 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>22</v>
@@ -892,36 +912,36 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -929,15 +949,32 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>8</v>
       </c>
     </row>

--- a/excel/pageList.xlsx
+++ b/excel/pageList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="77">
   <si>
     <t>title</t>
   </si>
@@ -301,6 +301,22 @@
   </si>
   <si>
     <t>/img/articles/201406/20140606_1_01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon Font 的使用方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/articles/201406/css-icon-font.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/img/articles/201406/20140607_1_01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JUN 7TH, 2014</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -673,10 +689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -708,50 +724,50 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>64</v>
@@ -762,30 +778,30 @@
         <v>30</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>57</v>
@@ -793,118 +809,118 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>22</v>
@@ -912,16 +928,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>22</v>
@@ -929,36 +945,36 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -966,15 +982,32 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>8</v>
       </c>
     </row>

--- a/excel/pageList.xlsx
+++ b/excel/pageList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="80">
   <si>
     <t>title</t>
   </si>
@@ -317,6 +317,18 @@
   </si>
   <si>
     <t>JUN 7TH, 2014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dreamsmile 影片製作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/articles/201406/dreamsmile-video.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/img/articles/201406/20140607_2_01.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -689,10 +701,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -724,16 +736,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>76</v>
@@ -741,50 +753,50 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>64</v>
@@ -795,30 +807,30 @@
         <v>30</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>57</v>
@@ -826,118 +838,118 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>22</v>
@@ -945,16 +957,16 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>22</v>
@@ -962,36 +974,36 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -999,15 +1011,32 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>8</v>
       </c>
     </row>

--- a/excel/pageList.xlsx
+++ b/excel/pageList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="84">
   <si>
     <t>title</t>
   </si>
@@ -329,6 +329,22 @@
   </si>
   <si>
     <t>/img/articles/201406/20140607_2_01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVG 研究之路 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/articles/201406/svg-01-intro.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/img/articles/201406/20140608_1_01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JUN 8TH, 2014</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -701,10 +717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -736,33 +752,33 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>76</v>
@@ -770,50 +786,50 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>64</v>
@@ -824,30 +840,30 @@
         <v>30</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>57</v>
@@ -855,118 +871,118 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>22</v>
@@ -974,16 +990,16 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>22</v>
@@ -991,36 +1007,36 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1028,15 +1044,32 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>8</v>
       </c>
     </row>

--- a/excel/pageList.xlsx
+++ b/excel/pageList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="88">
   <si>
     <t>title</t>
   </si>
@@ -345,6 +345,22 @@
   </si>
   <si>
     <t>JUN 8TH, 2014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/img/articles/201406/20140609_1_01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JUN 9TH, 2014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/articles/201406/svg-02-layer.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVG 研究之路 (2) - Layer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -717,10 +733,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -755,47 +771,47 @@
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>76</v>
@@ -803,50 +819,50 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>64</v>
@@ -857,30 +873,30 @@
         <v>30</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>57</v>
@@ -888,118 +904,118 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>22</v>
@@ -1007,16 +1023,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>22</v>
@@ -1024,36 +1040,36 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1061,15 +1077,32 @@
         <v>5</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>8</v>
       </c>
     </row>

--- a/excel/pageList.xlsx
+++ b/excel/pageList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="91">
   <si>
     <t>title</t>
   </si>
@@ -361,6 +361,18 @@
   </si>
   <si>
     <t>SVG 研究之路 (2) - Layer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVG 研究之路 (3) - 基本形狀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/articles/201406/svg-03-basic-shapes.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/img/articles/201406/20140609_2_01.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -733,10 +745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -771,13 +783,13 @@
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>85</v>
@@ -788,47 +800,47 @@
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>76</v>
@@ -836,50 +848,50 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>64</v>
@@ -890,30 +902,30 @@
         <v>30</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>57</v>
@@ -921,118 +933,118 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>22</v>
@@ -1040,16 +1052,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>22</v>
@@ -1057,36 +1069,36 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1094,15 +1106,32 @@
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>8</v>
       </c>
     </row>

--- a/excel/pageList.xlsx
+++ b/excel/pageList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="95">
   <si>
     <t>title</t>
   </si>
@@ -373,6 +373,22 @@
   </si>
   <si>
     <t>/img/articles/201406/20140609_2_01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>視覺創作 - 表情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/articles/201406/face.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/img/articles/201406/20140610_1_01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JUN 10TH, 2014</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -745,10 +761,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -780,19 +796,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -800,13 +816,13 @@
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>85</v>
@@ -817,47 +833,47 @@
         <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>76</v>
@@ -865,50 +881,50 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>64</v>
@@ -919,30 +935,30 @@
         <v>30</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>57</v>
@@ -950,118 +966,118 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>22</v>
@@ -1069,16 +1085,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>22</v>
@@ -1086,36 +1102,36 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1123,15 +1139,32 @@
         <v>5</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>8</v>
       </c>
     </row>

--- a/excel/pageList.xlsx
+++ b/excel/pageList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="99">
   <si>
     <t>title</t>
   </si>
@@ -389,6 +389,22 @@
   </si>
   <si>
     <t>JUN 10TH, 2014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JUN 11TH, 2014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/img/articles/201406/20140611_1_01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/articles/201406/svg-04-path-1.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVG 研究之路 (4) - Path 基礎篇</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -761,16 +777,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29" style="1" customWidth="1"/>
     <col min="3" max="3" width="37" style="1" customWidth="1"/>
     <col min="4" max="4" width="36.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="19.25" style="1" customWidth="1"/>
@@ -796,36 +812,36 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -833,13 +849,13 @@
         <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>85</v>
@@ -850,47 +866,47 @@
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>76</v>
@@ -898,50 +914,50 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>64</v>
@@ -952,30 +968,30 @@
         <v>30</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>57</v>
@@ -983,118 +999,118 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>22</v>
@@ -1102,16 +1118,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>22</v>
@@ -1119,36 +1135,36 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1156,15 +1172,32 @@
         <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>8</v>
       </c>
     </row>

--- a/excel/pageList.xlsx
+++ b/excel/pageList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="103">
   <si>
     <t>title</t>
   </si>
@@ -405,6 +405,22 @@
   </si>
   <si>
     <t>SVG 研究之路 (4) - Path 基礎篇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVG 研究之路 (5) - Path 進階篇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/img/articles/201406/20140612_1_01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JUN 12TH, 2014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/articles/201406/svg-05-path-2.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -777,10 +793,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -815,50 +831,50 @@
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -866,13 +882,13 @@
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>85</v>
@@ -883,47 +899,47 @@
         <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>76</v>
@@ -931,50 +947,50 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>64</v>
@@ -985,30 +1001,30 @@
         <v>30</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>57</v>
@@ -1016,118 +1032,118 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>22</v>
@@ -1135,16 +1151,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>22</v>
@@ -1152,36 +1168,36 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1189,15 +1205,32 @@
         <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>8</v>
       </c>
     </row>

--- a/excel/pageList.xlsx
+++ b/excel/pageList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="107">
   <si>
     <t>title</t>
   </si>
@@ -421,6 +421,22 @@
   </si>
   <si>
     <t>/articles/201406/svg-05-path-2.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVG 研究之路 (6) - stroke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/articles/201406/svg-06-stroke.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/img/articles/201406/20140613_1_01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JUN 13TH, 2014</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -793,10 +809,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -831,16 +847,16 @@
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -848,50 +864,50 @@
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -899,13 +915,13 @@
         <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>85</v>
@@ -916,47 +932,47 @@
         <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>76</v>
@@ -964,50 +980,50 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>64</v>
@@ -1018,30 +1034,30 @@
         <v>30</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>57</v>
@@ -1049,118 +1065,118 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>22</v>
@@ -1168,16 +1184,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>22</v>
@@ -1185,36 +1201,36 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1222,15 +1238,32 @@
         <v>5</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>8</v>
       </c>
     </row>

--- a/excel/pageList.xlsx
+++ b/excel/pageList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="111">
   <si>
     <t>title</t>
   </si>
@@ -424,10 +424,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SVG 研究之路 (6) - stroke</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/articles/201406/svg-06-stroke.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -437,6 +433,26 @@
   </si>
   <si>
     <t>JUN 13TH, 2014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVG 研究之路 (6) - stroke 邊框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVG 研究之路 (7) - fill 填色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/articles/201406/svg-07-fill.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/img/articles/201406/20140614_1_01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JUN 14TH, 2014</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -809,7 +825,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
@@ -847,16 +863,16 @@
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -864,16 +880,16 @@
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -881,50 +897,50 @@
         <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -932,13 +948,13 @@
         <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>85</v>
@@ -949,47 +965,47 @@
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>76</v>
@@ -997,50 +1013,50 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>64</v>
@@ -1051,30 +1067,30 @@
         <v>30</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>57</v>
@@ -1082,118 +1098,118 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>22</v>
@@ -1201,16 +1217,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>22</v>
@@ -1218,36 +1234,36 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1255,15 +1271,32 @@
         <v>5</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>8</v>
       </c>
     </row>

--- a/excel/pageList.xlsx
+++ b/excel/pageList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="115">
   <si>
     <t>title</t>
   </si>
@@ -453,6 +453,22 @@
   </si>
   <si>
     <t>JUN 14TH, 2014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVG 研究之路 (8) - text 文字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/img/articles/201406/20140615_1_01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JUN 15TH, 2014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/articles/201406/svg-08-text.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -825,10 +841,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -863,16 +879,16 @@
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -880,16 +896,16 @@
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -897,16 +913,16 @@
         <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -914,50 +930,50 @@
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -965,13 +981,13 @@
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>85</v>
@@ -982,47 +998,47 @@
         <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>76</v>
@@ -1030,50 +1046,50 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>64</v>
@@ -1084,30 +1100,30 @@
         <v>30</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>57</v>
@@ -1115,118 +1131,118 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>22</v>
@@ -1234,16 +1250,16 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>22</v>
@@ -1251,36 +1267,36 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1288,15 +1304,32 @@
         <v>5</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>8</v>
       </c>
     </row>

--- a/excel/pageList.xlsx
+++ b/excel/pageList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="119">
   <si>
     <t>title</t>
   </si>
@@ -469,6 +469,22 @@
   </si>
   <si>
     <t>/articles/201406/svg-08-text.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/articles/201406/svg-09-clipping-masking.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/img/articles/201406/20140616_1_01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JUN 16TH, 2014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVG 研究之路 (9) - Clipping and Masking</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -841,17 +857,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29" style="1" customWidth="1"/>
-    <col min="3" max="3" width="37" style="1" customWidth="1"/>
+    <col min="2" max="2" width="37.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="36.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="19.25" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
@@ -879,16 +895,16 @@
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -896,16 +912,16 @@
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -913,16 +929,16 @@
         <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -930,16 +946,16 @@
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -947,50 +963,50 @@
         <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -998,13 +1014,13 @@
         <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>85</v>
@@ -1015,47 +1031,47 @@
         <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>76</v>
@@ -1063,50 +1079,50 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>64</v>
@@ -1117,30 +1133,30 @@
         <v>30</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>57</v>
@@ -1148,118 +1164,118 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>22</v>
@@ -1267,16 +1283,16 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>22</v>
@@ -1284,36 +1300,36 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1321,15 +1337,32 @@
         <v>5</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>8</v>
       </c>
     </row>

--- a/excel/pageList.xlsx
+++ b/excel/pageList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="123">
   <si>
     <t>title</t>
   </si>
@@ -485,6 +485,22 @@
   </si>
   <si>
     <t>SVG 研究之路 (9) - Clipping and Masking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/img/articles/201406/20140618_1_01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JUN 18TH, 2014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/articles/201406/svg-10-filter-1.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVG 研究之路 (10) - filter part 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -857,10 +873,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -895,16 +911,16 @@
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -912,16 +928,16 @@
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -929,16 +945,16 @@
         <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -946,16 +962,16 @@
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -963,16 +979,16 @@
         <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -980,50 +996,50 @@
         <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1031,13 +1047,13 @@
         <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>85</v>
@@ -1048,47 +1064,47 @@
         <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>76</v>
@@ -1096,50 +1112,50 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>64</v>
@@ -1150,30 +1166,30 @@
         <v>30</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>57</v>
@@ -1181,118 +1197,118 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>22</v>
@@ -1300,16 +1316,16 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>22</v>
@@ -1317,36 +1333,36 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1354,15 +1370,32 @@
         <v>5</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>8</v>
       </c>
     </row>

--- a/excel/pageList.xlsx
+++ b/excel/pageList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="128">
   <si>
     <t>title</t>
   </si>
@@ -501,6 +501,26 @@
   </si>
   <si>
     <t>SVG 研究之路 (10) - filter part 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JUN 21TH, 2014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/img/articles/201406/20140621_2_01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/articles/201406/color-channel.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淺談位元色版 color channel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag-photo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -873,10 +893,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -908,19 +928,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -928,16 +948,16 @@
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -945,16 +965,16 @@
         <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -962,16 +982,16 @@
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -979,16 +999,16 @@
         <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -996,16 +1016,16 @@
         <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1013,50 +1033,50 @@
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1064,13 +1084,13 @@
         <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>85</v>
@@ -1081,47 +1101,47 @@
         <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>76</v>
@@ -1129,50 +1149,50 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>64</v>
@@ -1183,30 +1203,30 @@
         <v>30</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>57</v>
@@ -1214,118 +1234,118 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>22</v>
@@ -1333,16 +1353,16 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>22</v>
@@ -1350,36 +1370,36 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1387,15 +1407,32 @@
         <v>5</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>8</v>
       </c>
     </row>

--- a/excel/pageList.xlsx
+++ b/excel/pageList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="132">
   <si>
     <t>title</t>
   </si>
@@ -521,6 +521,22 @@
   </si>
   <si>
     <t>tag-photo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JUN 22TH, 2014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/img/articles/201406/20140621_1_01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVG 研究之路 (11) - filter:feColorMatrix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/articles/201406/svg-11-filter-feColorMatrix.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -893,17 +909,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="37.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="41.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="36.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="19.25" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
@@ -928,36 +944,36 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -965,16 +981,16 @@
         <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -982,16 +998,16 @@
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -999,16 +1015,16 @@
         <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1016,16 +1032,16 @@
         <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1033,16 +1049,16 @@
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1050,50 +1066,50 @@
         <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1101,13 +1117,13 @@
         <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>85</v>
@@ -1118,47 +1134,47 @@
         <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>76</v>
@@ -1166,50 +1182,50 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>64</v>
@@ -1220,30 +1236,30 @@
         <v>30</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>57</v>
@@ -1251,118 +1267,118 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>22</v>
@@ -1370,16 +1386,16 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>22</v>
@@ -1387,36 +1403,36 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1424,15 +1440,32 @@
         <v>5</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>8</v>
       </c>
     </row>

--- a/excel/pageList.xlsx
+++ b/excel/pageList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="136">
   <si>
     <t>title</t>
   </si>
@@ -537,6 +537,22 @@
   </si>
   <si>
     <t>/articles/201406/svg-11-filter-feColorMatrix.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JUN 24TH, 2014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVG 研究之路 (12) - pie chart 圓餅圖實作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/articles/201406/svg-12-pie-chart.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/img/articles/201406/20140623_1_01.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -909,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -947,50 +963,50 @@
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -998,16 +1014,16 @@
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1015,16 +1031,16 @@
         <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1032,16 +1048,16 @@
         <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1049,16 +1065,16 @@
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1066,16 +1082,16 @@
         <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1083,50 +1099,50 @@
         <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1134,13 +1150,13 @@
         <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>85</v>
@@ -1151,47 +1167,47 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>76</v>
@@ -1199,50 +1215,50 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>64</v>
@@ -1253,30 +1269,30 @@
         <v>30</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>57</v>
@@ -1284,118 +1300,118 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>22</v>
@@ -1403,16 +1419,16 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>22</v>
@@ -1420,36 +1436,36 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1457,15 +1473,32 @@
         <v>5</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>8</v>
       </c>
     </row>

--- a/excel/pageList.xlsx
+++ b/excel/pageList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="140">
   <si>
     <t>title</t>
   </si>
@@ -553,6 +553,22 @@
   </si>
   <si>
     <t>/img/articles/201406/20140623_1_01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JUN 25TH, 2014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/img/articles/201406/20140625_1_01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/articles/201406/svg-13-filter-feGaussianBlur.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVG 研究之路 (13) - filter - feGaussianBlur</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -925,10 +941,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -963,16 +979,16 @@
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -980,50 +996,50 @@
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1031,16 +1047,16 @@
         <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1048,16 +1064,16 @@
         <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1065,16 +1081,16 @@
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1082,16 +1098,16 @@
         <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1099,16 +1115,16 @@
         <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1116,50 +1132,50 @@
         <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1167,13 +1183,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>85</v>
@@ -1184,47 +1200,47 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>76</v>
@@ -1232,50 +1248,50 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>64</v>
@@ -1286,30 +1302,30 @@
         <v>30</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>57</v>
@@ -1317,118 +1333,118 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>22</v>
@@ -1436,16 +1452,16 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>22</v>
@@ -1453,36 +1469,36 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1490,15 +1506,32 @@
         <v>5</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>8</v>
       </c>
     </row>

--- a/excel/pageList.xlsx
+++ b/excel/pageList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="144">
   <si>
     <t>title</t>
   </si>
@@ -44,10 +44,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MAY 18TH, 2014</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Contact</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -80,10 +76,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MAY 20TH, 2014</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tag-creative</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -100,10 +92,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MAY 25TH, 2014</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tag-web</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -148,10 +136,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MAY 27TH, 2014</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tag-ui</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -168,10 +152,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MAY 29TH, 2014</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CSS Specificity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -184,10 +164,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MAY 30TH, 2014</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tag-photo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -204,10 +180,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MAY 31TH, 2014</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tag-web</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -224,10 +196,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>JUN 1TH, 2014</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Dreamsmile 網頁設計</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -240,10 +208,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>JUN 2TH, 2014</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CSS 文字的換行</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -268,10 +232,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>JUN 4TH, 2014</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/articles/201406/google-code-prettify.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -296,10 +256,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>JUN 6TH, 2014</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/img/articles/201406/20140606_1_01.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -316,10 +272,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>JUN 7TH, 2014</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Dreamsmile 影片製作</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -344,18 +296,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>JUN 8TH, 2014</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/img/articles/201406/20140609_1_01.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>JUN 9TH, 2014</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/articles/201406/svg-02-layer.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -388,14 +332,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>JUN 10TH, 2014</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JUN 11TH, 2014</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/img/articles/201406/20140611_1_01.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -416,10 +352,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>JUN 12TH, 2014</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/articles/201406/svg-05-path-2.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -432,10 +364,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>JUN 13TH, 2014</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SVG 研究之路 (6) - stroke 邊框</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -452,10 +380,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>JUN 14TH, 2014</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SVG 研究之路 (8) - text 文字</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -464,10 +388,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>JUN 15TH, 2014</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/articles/201406/svg-08-text.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -480,10 +400,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>JUN 16TH, 2014</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SVG 研究之路 (9) - Clipping and Masking</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -492,10 +408,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>JUN 18TH, 2014</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/articles/201406/svg-10-filter-1.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -504,10 +416,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>JUN 21TH, 2014</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/img/articles/201406/20140621_2_01.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -524,10 +432,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>JUN 22TH, 2014</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/img/articles/201406/20140621_1_01.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -540,10 +444,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>JUN 24TH, 2014</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SVG 研究之路 (12) - pie chart 圓餅圖實作</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -556,10 +456,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>JUN 25TH, 2014</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/img/articles/201406/20140625_1_01.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -569,6 +465,126 @@
   </si>
   <si>
     <t>SVG 研究之路 (13) - filter - feGaussianBlur</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVG 研究之路 (14) - 控制 SVG 的注意事項</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/articles/201406/svg-14-control-SVG.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/img/articles/201406/20140626_1_01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JUN 25, 2014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JUN 24, 2014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JUN 22, 2014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JUN 21, 2014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JUN 18, 2014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JUN 16, 2014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JUN 15, 2014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JUN 14, 2014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JUN 13, 2014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JUN 12, 2014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JUN 11, 2014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JUN 10, 2014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JUN 9, 2014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JUN 8, 2014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JUN 7, 2014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JUN 6, 2014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JUN 4, 2014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JUN 2, 2014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JUN 1, 2014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAY 31, 2014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAY 30, 2014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAY 29, 2014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAY 27, 2014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAY 25, 2014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAY 20, 2014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAY 18, 2014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JUN 26, 2014</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -941,10 +957,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -976,84 +992,84 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>120</v>
@@ -1061,398 +1077,398 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>95</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>85</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>85</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>83</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>76</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>76</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>71</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>64</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>64</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>57</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>57</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>53</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="E25" s="1" t="s">
-        <v>48</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="E26" s="1" t="s">
-        <v>43</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="E27" s="1" t="s">
-        <v>39</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>34</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>22</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>24</v>
@@ -1464,58 +1480,58 @@
         <v>26</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>22</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>22</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>17</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>8</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1523,16 +1539,33 @@
         <v>5</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>8</v>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/excel/pageList.xlsx
+++ b/excel/pageList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="149">
   <si>
     <t>title</t>
   </si>
@@ -585,6 +585,26 @@
   </si>
   <si>
     <t>JUN 26, 2014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag-css</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSS3 Cubic Bezier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/articles/201406/css-cubic-bezier.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/img/articles/201406/20140628_1_01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JUN 28, 2014</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -957,10 +977,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -992,19 +1012,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>114</v>
+        <v>145</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>115</v>
+        <v>146</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1012,16 +1032,16 @@
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1029,16 +1049,16 @@
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1046,50 +1066,50 @@
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1097,16 +1117,16 @@
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1114,16 +1134,16 @@
         <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1131,16 +1151,16 @@
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1148,16 +1168,16 @@
         <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1165,16 +1185,16 @@
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1182,50 +1202,50 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1233,13 +1253,13 @@
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>129</v>
@@ -1250,47 +1270,47 @@
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>131</v>
@@ -1298,50 +1318,50 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>133</v>
@@ -1352,30 +1372,30 @@
         <v>27</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>134</v>
@@ -1383,118 +1403,118 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>140</v>
@@ -1502,16 +1522,16 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>140</v>
@@ -1519,36 +1539,36 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1556,15 +1576,32 @@
         <v>5</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>142</v>
       </c>
     </row>

--- a/excel/pageList.xlsx
+++ b/excel/pageList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="152">
   <si>
     <t>title</t>
   </si>
@@ -605,6 +605,18 @@
   </si>
   <si>
     <t>JUN 28, 2014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>這一年來的一些網頁設計</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/articles/201406/oxxo-web-design.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/img/articles/201406/20140628_2_01.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -977,10 +989,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1012,16 +1024,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>144</v>
+        <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>148</v>
@@ -1029,19 +1041,19 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>114</v>
+        <v>145</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>115</v>
+        <v>146</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1049,16 +1061,16 @@
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1066,16 +1078,16 @@
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1083,50 +1095,50 @@
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1134,16 +1146,16 @@
         <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1151,16 +1163,16 @@
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1168,16 +1180,16 @@
         <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1185,16 +1197,16 @@
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1202,16 +1214,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1219,50 +1231,50 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1270,13 +1282,13 @@
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>129</v>
@@ -1287,47 +1299,47 @@
         <v>12</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>131</v>
@@ -1335,50 +1347,50 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>133</v>
@@ -1389,30 +1401,30 @@
         <v>27</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>134</v>
@@ -1420,118 +1432,118 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>140</v>
@@ -1539,16 +1551,16 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>140</v>
@@ -1556,36 +1568,36 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1593,15 +1605,32 @@
         <v>5</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>142</v>
       </c>
     </row>

--- a/excel/pageList.xlsx
+++ b/excel/pageList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="156">
   <si>
     <t>title</t>
   </si>
@@ -617,6 +617,22 @@
   </si>
   <si>
     <t>/img/articles/201406/20140628_2_01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSS3動畫 - Google Loading Animation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/articles/201406/css-google-loading.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/img/articles/201406/20140629_1_01.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JUN 29, 2014</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -989,7 +1005,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
@@ -1024,33 +1040,33 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>144</v>
+        <v>31</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>148</v>
@@ -1058,19 +1074,19 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>114</v>
+        <v>145</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>115</v>
+        <v>146</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1078,16 +1094,16 @@
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1095,16 +1111,16 @@
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1112,50 +1128,50 @@
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1163,16 +1179,16 @@
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1180,16 +1196,16 @@
         <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1197,16 +1213,16 @@
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1214,16 +1230,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1231,16 +1247,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1248,50 +1264,50 @@
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1299,13 +1315,13 @@
         <v>12</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>129</v>
@@ -1316,47 +1332,47 @@
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>131</v>
@@ -1364,50 +1380,50 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>133</v>
@@ -1418,30 +1434,30 @@
         <v>27</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>134</v>
@@ -1449,118 +1465,118 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>140</v>
@@ -1568,16 +1584,16 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>140</v>
@@ -1585,36 +1601,36 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1622,15 +1638,32 @@
         <v>5</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>142</v>
       </c>
     </row>

--- a/excel/pageList.xlsx
+++ b/excel/pageList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="164">
   <si>
     <t>title</t>
   </si>
@@ -654,6 +654,18 @@
   </si>
   <si>
     <t>/img/articles/201407/20140701_1_01.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorldCup 2014 - Google Doodle 11~15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/articles/201407/google-doodle-worldcup2014-11-15.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/img/articles/201407/20140701_2_01.gif</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1026,10 +1038,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1064,13 +1076,13 @@
         <v>155</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>159</v>
@@ -1078,50 +1090,50 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>155</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>143</v>
+        <v>30</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>147</v>
@@ -1129,19 +1141,19 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>143</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>114</v>
+        <v>145</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>115</v>
+        <v>146</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1149,16 +1161,16 @@
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1166,16 +1178,16 @@
         <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1183,50 +1195,50 @@
         <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>103</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1234,16 +1246,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1251,16 +1263,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1268,16 +1280,16 @@
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1285,16 +1297,16 @@
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1302,16 +1314,16 @@
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1319,50 +1331,50 @@
         <v>11</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1370,13 +1382,13 @@
         <v>11</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>128</v>
@@ -1387,47 +1399,47 @@
         <v>11</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>130</v>
@@ -1435,50 +1447,50 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>132</v>
@@ -1489,30 +1501,30 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>133</v>
@@ -1520,118 +1532,118 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>139</v>
@@ -1639,16 +1651,16 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>139</v>
@@ -1656,36 +1668,36 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1693,15 +1705,32 @@
         <v>4</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>141</v>
       </c>
     </row>

--- a/excel/pageList.xlsx
+++ b/excel/pageList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="168">
   <si>
     <t>title</t>
   </si>
@@ -666,6 +666,22 @@
   </si>
   <si>
     <t>/img/articles/201407/20140701_2_01.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorldCup 2014 - Google Doodle 16~25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/articles/201407/google-doodle-worldcup2014-16-25.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/img/articles/201407/20140702_1_01.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JUL 2, 2014</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1038,10 +1054,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1076,16 +1092,16 @@
         <v>155</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1093,13 +1109,13 @@
         <v>155</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>159</v>
@@ -1107,50 +1123,50 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>155</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>143</v>
+        <v>30</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>147</v>
@@ -1158,19 +1174,19 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>143</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>114</v>
+        <v>145</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>115</v>
+        <v>146</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1178,16 +1194,16 @@
         <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1195,16 +1211,16 @@
         <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1212,50 +1228,50 @@
         <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>103</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1263,16 +1279,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1280,16 +1296,16 @@
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1297,16 +1313,16 @@
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1314,16 +1330,16 @@
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1331,16 +1347,16 @@
         <v>11</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1348,50 +1364,50 @@
         <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1399,13 +1415,13 @@
         <v>11</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>128</v>
@@ -1416,47 +1432,47 @@
         <v>11</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>130</v>
@@ -1464,50 +1480,50 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>132</v>
@@ -1518,30 +1534,30 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>133</v>
@@ -1549,118 +1565,118 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>139</v>
@@ -1668,16 +1684,16 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>139</v>
@@ -1685,36 +1701,36 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1722,15 +1738,32 @@
         <v>4</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>141</v>
       </c>
     </row>

--- a/excel/pageList.xlsx
+++ b/excel/pageList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="173">
   <si>
     <t>title</t>
   </si>
@@ -682,6 +682,26 @@
   </si>
   <si>
     <t>JUL 2, 2014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag-web</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Material Design - Progress and Activity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JUL 10, 2014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/img/articles/201407/20140710_1_01.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/articles/201407/svg-progress-bar.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1054,10 +1074,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1089,19 +1109,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1109,16 +1129,16 @@
         <v>155</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1126,13 +1146,13 @@
         <v>155</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>159</v>
@@ -1140,50 +1160,50 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>155</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>143</v>
+        <v>30</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>147</v>
@@ -1191,19 +1211,19 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>143</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>114</v>
+        <v>145</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>115</v>
+        <v>146</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1211,16 +1231,16 @@
         <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1228,16 +1248,16 @@
         <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1245,50 +1265,50 @@
         <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>103</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1296,16 +1316,16 @@
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1313,16 +1333,16 @@
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1330,16 +1350,16 @@
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1347,16 +1367,16 @@
         <v>11</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1364,16 +1384,16 @@
         <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1381,50 +1401,50 @@
         <v>11</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1432,13 +1452,13 @@
         <v>11</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>128</v>
@@ -1449,47 +1469,47 @@
         <v>11</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>130</v>
@@ -1497,50 +1517,50 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>132</v>
@@ -1551,30 +1571,30 @@
         <v>26</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>133</v>
@@ -1582,118 +1602,118 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>139</v>
@@ -1701,16 +1721,16 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>139</v>
@@ -1718,36 +1738,36 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1755,15 +1775,32 @@
         <v>4</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>141</v>
       </c>
     </row>

--- a/excel/pageList.xlsx
+++ b/excel/pageList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="177">
   <si>
     <t>title</t>
   </si>
@@ -702,6 +702,22 @@
   </si>
   <si>
     <t>/articles/201407/svg-progress-bar.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JUL 17, 2014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/img/articles/201407/20140717_1_01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/articles/201407/css-clock.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電子時鐘效果 ( CSS 偽元素的應用 )</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1074,10 +1090,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1109,36 +1125,36 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>168</v>
+        <v>26</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1146,16 +1162,16 @@
         <v>155</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1163,13 +1179,13 @@
         <v>155</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>159</v>
@@ -1177,50 +1193,50 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>155</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>143</v>
+        <v>30</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>147</v>
@@ -1228,19 +1244,19 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>143</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>114</v>
+        <v>145</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>115</v>
+        <v>146</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1248,16 +1264,16 @@
         <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1265,16 +1281,16 @@
         <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1282,50 +1298,50 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>103</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1333,16 +1349,16 @@
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1350,16 +1366,16 @@
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1367,16 +1383,16 @@
         <v>11</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1384,16 +1400,16 @@
         <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1401,16 +1417,16 @@
         <v>11</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1418,50 +1434,50 @@
         <v>11</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1469,13 +1485,13 @@
         <v>11</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>128</v>
@@ -1486,47 +1502,47 @@
         <v>11</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>130</v>
@@ -1534,50 +1550,50 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>132</v>
@@ -1588,30 +1604,30 @@
         <v>26</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>133</v>
@@ -1619,118 +1635,118 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>139</v>
@@ -1738,16 +1754,16 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>139</v>
@@ -1755,36 +1771,36 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1792,15 +1808,32 @@
         <v>4</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>141</v>
       </c>
     </row>

--- a/excel/pageList.xlsx
+++ b/excel/pageList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="184">
   <si>
     <t>title</t>
   </si>
@@ -718,6 +718,34 @@
   </si>
   <si>
     <t>電子時鐘效果 ( CSS 偽元素的應用 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/articles/201407/css-blur.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/img/articles/201407/20140726_1_01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JUL 26, 2014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSS 模糊效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/img/articles/201407/20140726_2_01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/articles/201407/css-webkit-filter.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSS webkit filter</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1090,10 +1118,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1128,67 +1156,67 @@
         <v>26</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>168</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>155</v>
+        <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1196,101 +1224,101 @@
         <v>155</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>155</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>30</v>
+        <v>155</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>143</v>
+        <v>26</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>114</v>
+        <v>149</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>143</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1298,16 +1326,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1315,33 +1343,33 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>103</v>
+        <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1349,33 +1377,33 @@
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1383,16 +1411,16 @@
         <v>11</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1400,16 +1428,16 @@
         <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1417,16 +1445,16 @@
         <v>11</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1434,16 +1462,16 @@
         <v>11</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1451,33 +1479,33 @@
         <v>11</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1485,33 +1513,33 @@
         <v>11</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1519,203 +1547,203 @@
         <v>11</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1723,50 +1751,50 @@
         <v>26</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1774,13 +1802,13 @@
         <v>15</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>139</v>
@@ -1788,52 +1816,86 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>141</v>
       </c>
     </row>

--- a/excel/pageList.xlsx
+++ b/excel/pageList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="188">
   <si>
     <t>title</t>
   </si>
@@ -746,6 +746,22 @@
   </si>
   <si>
     <t>CSS webkit filter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JUL 28, 2014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/articles/201407/svg-15-filter-feComponentTransfer.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVG 研究之路 (15) - filter - feComponentTransfer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/img/articles/201407/20140728_1_01.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1118,16 +1134,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="37.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="42.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="47.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="36.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="19.25" style="1" customWidth="1"/>
@@ -1153,19 +1169,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1173,13 +1189,13 @@
         <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>179</v>
@@ -1190,50 +1206,50 @@
         <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>168</v>
+        <v>26</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1241,16 +1257,16 @@
         <v>155</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1258,13 +1274,13 @@
         <v>155</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>159</v>
@@ -1272,50 +1288,50 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>155</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>143</v>
+        <v>30</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>147</v>
@@ -1323,19 +1339,19 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>143</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>114</v>
+        <v>145</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>115</v>
+        <v>146</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1343,16 +1359,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1360,16 +1376,16 @@
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1377,50 +1393,50 @@
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>103</v>
+        <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1428,16 +1444,16 @@
         <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1445,16 +1461,16 @@
         <v>11</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1462,16 +1478,16 @@
         <v>11</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1479,16 +1495,16 @@
         <v>11</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1496,16 +1512,16 @@
         <v>11</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1513,50 +1529,50 @@
         <v>11</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1564,13 +1580,13 @@
         <v>11</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>128</v>
@@ -1581,47 +1597,47 @@
         <v>11</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>130</v>
@@ -1629,50 +1645,50 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>132</v>
@@ -1683,30 +1699,30 @@
         <v>26</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>133</v>
@@ -1714,118 +1730,118 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>139</v>
@@ -1833,16 +1849,16 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>139</v>
@@ -1850,36 +1866,36 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -1887,15 +1903,32 @@
         <v>4</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>141</v>
       </c>
     </row>

--- a/excel/pageList.xlsx
+++ b/excel/pageList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="192">
   <si>
     <t>title</t>
   </si>
@@ -762,6 +762,22 @@
   </si>
   <si>
     <t>/img/articles/201407/20140728_1_01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSS Water Wave (水波效果)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/articles/201407/css-water-wave.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/img/articles/201407/20140729_1_01.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JUL 29, 2014</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1134,10 +1150,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1169,36 +1185,36 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1206,13 +1222,13 @@
         <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>179</v>
@@ -1223,50 +1239,50 @@
         <v>26</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>168</v>
+        <v>26</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1274,16 +1290,16 @@
         <v>155</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1291,13 +1307,13 @@
         <v>155</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>159</v>
@@ -1305,50 +1321,50 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>155</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>143</v>
+        <v>30</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>147</v>
@@ -1356,19 +1372,19 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>143</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>114</v>
+        <v>145</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>115</v>
+        <v>146</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1376,16 +1392,16 @@
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1393,16 +1409,16 @@
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1410,50 +1426,50 @@
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>103</v>
+        <v>11</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1461,16 +1477,16 @@
         <v>11</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1478,16 +1494,16 @@
         <v>11</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1495,16 +1511,16 @@
         <v>11</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1512,16 +1528,16 @@
         <v>11</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1529,16 +1545,16 @@
         <v>11</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1546,50 +1562,50 @@
         <v>11</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1597,13 +1613,13 @@
         <v>11</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>128</v>
@@ -1614,47 +1630,47 @@
         <v>11</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>130</v>
@@ -1662,50 +1678,50 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>132</v>
@@ -1716,30 +1732,30 @@
         <v>26</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>133</v>
@@ -1747,118 +1763,118 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>139</v>
@@ -1866,16 +1882,16 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>139</v>
@@ -1883,36 +1899,36 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1920,15 +1936,32 @@
         <v>4</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>141</v>
       </c>
     </row>
